--- a/static/7/suzdal_58.xlsx
+++ b/static/7/suzdal_58.xlsx
@@ -748,9 +748,6 @@
       <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>